--- a/Reference Notes/006 KurtageOgVeksling_SaxoVsNordnet.xlsx
+++ b/Reference Notes/006 KurtageOgVeksling_SaxoVsNordnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42f364afe123e12d/Ymisk papírir/Niklas'sPengetips/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-projects\Tid-Frihed-Penge\Reference Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{FC4DECCB-20FE-4F17-8406-0039CFBE80B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABC0C4C-1805-4BA7-9B3F-9E888E23FC2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86576624-9ED9-4AD2-BA56-E7DEB75A1934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF8CCFA7-4BC8-4720-AC42-95FDF594C724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DF8CCFA7-4BC8-4720-AC42-95FDF594C724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Indbetaling (kr)</t>
   </si>
@@ -54,16 +54,26 @@
   <si>
     <t>Nordnet</t>
   </si>
+  <si>
+    <t>% af Indbetaling</t>
+  </si>
+  <si>
+    <t>(0,15%, min 90kr kurtage og 0,25% veksling)</t>
+  </si>
+  <si>
+    <t>(0,10%, min 15kr kurtage og 0,50% veksling)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #\ &quot;kr.&quot;_-;\-* #\ &quot;kr.&quot;_-;_-* &quot;-&quot;\ &quot;kr.&quot;_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #\ &quot;kr.&quot;_-;\-* #\ &quot;kr.&quot;_-;_-* &quot;-&quot;\ &quot;kr.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +83,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,19 +122,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <gradientFill degree="270">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF92D050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="270">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF92D050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -192,7 +248,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13577114855467823"/>
+          <c:y val="0.10531861625141177"/>
+          <c:w val="0.72519000564169889"/>
+          <c:h val="0.65220826239419283"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -201,7 +267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -450,7 +516,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -581,7 +647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$36</c:f>
+              <c:f>Sheet1!$K$4:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ "kr."_-;\-* #\ "kr."_-;_-* "-"\ "kr."_-;_-@_-</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1006,7 +1072,827 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Kurtage % af</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Indbetaling</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saxo Bank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ "kr."_-;\-* #\ "kr."_-;_-* "-"\ "kr."_-;_-@_-</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7500000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1428571428571426E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3636363636363638E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1538461538461538E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0714285714285714E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0F6-44DE-A187-00857F1D3190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nordnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ "kr."_-;\-* #\ "kr."_-;_-* "-"\ "kr."_-;_-@_-</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5357142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0681818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4230769230769229E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9285714285714281E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1250000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7941176470588238E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2368421052631578E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.7857142857142855E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5909090909090908E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4130434782608695E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.9615384615384617E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8333333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7142857142857143E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6034482758620689E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4032258064516132E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3125000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2272727272727271E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0F6-44DE-A187-00857F1D3190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780839039"/>
+        <c:axId val="1824842031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780839039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-* #\ &quot;kr.&quot;_-;\-* #\ &quot;kr.&quot;_-;_-* &quot;-&quot;\ &quot;kr.&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1824842031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1824842031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780839039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1562,20 +2448,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>641536</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355786</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>391645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1595,6 +2997,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6BC63D-29ED-FAEE-591F-FE9D35AB67B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1900,36 +3338,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79855941-4EE7-46D6-8876-4AFD7ABF90F1}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>38</v>
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1942,17 +3385,23 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -1968,21 +3417,30 @@
         <f>SUM(B4:C4)</f>
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="E4" s="3">
+        <f>D4/A4</f>
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="1">
         <f>MAX(A4*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
         <f>A4*0.0025</f>
         <v>2.5</v>
       </c>
-      <c r="H4" s="1">
-        <f>SUM(F4:G4)</f>
+      <c r="K4" s="1">
+        <f>SUM(I4:J4)</f>
         <v>92.5</v>
       </c>
+      <c r="L4" s="3">
+        <f>K4/A4</f>
+        <v>9.2499999999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -1998,21 +3456,30 @@
         <f t="shared" ref="D5:D36" si="2">SUM(B5:C5)</f>
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F35" si="3">MAX(A5*0.0015,90)</f>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E36" si="3">D5/A5</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="1">
+        <f>MAX(A5*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G36" si="4">A5*0.0025</f>
+      <c r="J5" s="1">
+        <f>A5*0.0025</f>
         <v>5</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H36" si="5">SUM(F5:G5)</f>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K36" si="4">SUM(I5:J5)</f>
         <v>95</v>
       </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L36" si="5">K5/A5</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3000</v>
       </c>
@@ -2028,21 +3495,30 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="1">
+        <f>MAX(A6*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
+        <f>A6*0.0025</f>
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="H6" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="5"/>
-        <v>97.5</v>
+        <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4000</v>
       </c>
@@ -2058,21 +3534,30 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="1">
+        <f>MAX(A7*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
+        <f>A7*0.0025</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5000</v>
       </c>
@@ -2088,21 +3573,30 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="1">
+        <f>MAX(A8*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
+        <f>A8*0.0025</f>
+        <v>12.5</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="H8" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="5"/>
-        <v>102.5</v>
+        <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6000</v>
       </c>
@@ -2118,21 +3612,30 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="1">
+        <f>MAX(A9*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
+        <f>A9*0.0025</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
+        <v>105</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -2148,21 +3651,30 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="E10" s="3">
         <f t="shared" si="3"/>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="1">
+        <f>MAX(A10*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="1">
+        <f>A10*0.0025</f>
+        <v>17.5</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>17.5</v>
-      </c>
-      <c r="H10" s="1">
+        <v>107.5</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="5"/>
-        <v>107.5</v>
+        <v>1.5357142857142857E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -2178,21 +3690,30 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="E11" s="3">
         <f t="shared" si="3"/>
+        <v>6.875E-3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="1">
+        <f>MAX(A11*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11" s="1">
+        <f>A11*0.0025</f>
+        <v>20</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="1">
+        <v>110</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>1.375E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9000</v>
       </c>
@@ -2208,21 +3729,30 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="E12" s="3">
         <f t="shared" si="3"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="1">
+        <f>MAX(A12*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12" s="1">
+        <f>A12*0.0025</f>
+        <v>22.5</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>22.5</v>
-      </c>
-      <c r="H12" s="1">
+        <v>112.5</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="5"/>
-        <v>112.5</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10000</v>
       </c>
@@ -2238,21 +3768,30 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="E13" s="3">
         <f t="shared" si="3"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="1">
+        <f>MAX(A13*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13" s="1">
+        <f>A13*0.0025</f>
+        <v>25</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H13" s="1">
+        <v>115</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>1.15E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11000</v>
       </c>
@@ -2268,21 +3807,30 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
+      <c r="E14" s="3">
         <f t="shared" si="3"/>
+        <v>6.3636363636363638E-3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="1">
+        <f>MAX(A14*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14" s="1">
+        <f>A14*0.0025</f>
+        <v>27.5</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>27.5</v>
-      </c>
-      <c r="H14" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="5"/>
-        <v>117.5</v>
+        <v>1.0681818181818181E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12000</v>
       </c>
@@ -2298,21 +3846,30 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="E15" s="3">
         <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="1">
+        <f>MAX(A15*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15" s="1">
+        <f>A15*0.0025</f>
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H15" s="1">
+        <v>120</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13000</v>
       </c>
@@ -2328,21 +3885,30 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
+      <c r="E16" s="3">
         <f t="shared" si="3"/>
+        <v>6.1538461538461538E-3</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="1">
+        <f>MAX(A16*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16" s="1">
+        <f>A16*0.0025</f>
+        <v>32.5</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
-        <v>32.5</v>
-      </c>
-      <c r="H16" s="1">
+        <v>122.5</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="5"/>
-        <v>122.5</v>
+        <v>9.4230769230769229E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14000</v>
       </c>
@@ -2358,21 +3924,30 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="E17" s="3">
         <f t="shared" si="3"/>
+        <v>6.0714285714285714E-3</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="1">
+        <f>MAX(A17*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17" s="1">
+        <f>A17*0.0025</f>
+        <v>35</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="H17" s="1">
+        <v>125</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>8.9285714285714281E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15000</v>
       </c>
@@ -2388,21 +3963,30 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="E18" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="1">
+        <f>MAX(A18*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G18" s="1">
+      <c r="J18" s="1">
+        <f>A18*0.0025</f>
+        <v>37.5</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="4"/>
-        <v>37.5</v>
-      </c>
-      <c r="H18" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="5"/>
-        <v>127.5</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -2418,21 +4002,30 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="E19" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="1">
+        <f>MAX(A19*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G19" s="1">
+      <c r="J19" s="1">
+        <f>A19*0.0025</f>
+        <v>40</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="H19" s="1">
+        <v>130</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>8.1250000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17000</v>
       </c>
@@ -2448,21 +4041,30 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
+      <c r="E20" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="1">
+        <f>MAX(A20*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
+        <f>A20*0.0025</f>
+        <v>42.5</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="4"/>
-        <v>42.5</v>
-      </c>
-      <c r="H20" s="1">
+        <v>132.5</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="5"/>
-        <v>132.5</v>
+        <v>7.7941176470588238E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18000</v>
       </c>
@@ -2478,21 +4080,30 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="E21" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="1">
+        <f>MAX(A21*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21" s="1">
+        <f>A21*0.0025</f>
+        <v>45</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="H21" s="1">
+        <v>135</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19000</v>
       </c>
@@ -2508,21 +4119,30 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="E22" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="1">
+        <f>MAX(A22*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G22" s="1">
+      <c r="J22" s="1">
+        <f>A22*0.0025</f>
+        <v>47.5</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="4"/>
-        <v>47.5</v>
-      </c>
-      <c r="H22" s="1">
+        <v>137.5</v>
+      </c>
+      <c r="L22" s="3">
         <f t="shared" si="5"/>
-        <v>137.5</v>
+        <v>7.2368421052631578E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20000</v>
       </c>
@@ -2538,21 +4158,30 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="E23" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="1">
+        <f>MAX(A23*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G23" s="1">
+      <c r="J23" s="1">
+        <f>A23*0.0025</f>
+        <v>50</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="H23" s="1">
+        <v>140</v>
+      </c>
+      <c r="L23" s="3">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21000</v>
       </c>
@@ -2568,21 +4197,30 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
+      <c r="E24" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="1">
+        <f>MAX(A24*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G24" s="1">
+      <c r="J24" s="1">
+        <f>A24*0.0025</f>
+        <v>52.5</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="4"/>
-        <v>52.5</v>
-      </c>
-      <c r="H24" s="1">
+        <v>142.5</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="5"/>
-        <v>142.5</v>
+        <v>6.7857142857142855E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22000</v>
       </c>
@@ -2598,21 +4236,30 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="E25" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="1">
+        <f>MAX(A25*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G25" s="1">
+      <c r="J25" s="1">
+        <f>A25*0.0025</f>
+        <v>55</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="H25" s="1">
+        <v>145</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>6.5909090909090908E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23000</v>
       </c>
@@ -2628,21 +4275,30 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="E26" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="1">
+        <f>MAX(A26*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G26" s="1">
+      <c r="J26" s="1">
+        <f>A26*0.0025</f>
+        <v>57.5</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="4"/>
-        <v>57.5</v>
-      </c>
-      <c r="H26" s="1">
+        <v>147.5</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="5"/>
-        <v>147.5</v>
+        <v>6.4130434782608695E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24000</v>
       </c>
@@ -2658,21 +4314,30 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
+      <c r="E27" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="1">
+        <f>MAX(A27*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G27" s="1">
+      <c r="J27" s="1">
+        <f>A27*0.0025</f>
+        <v>60</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="H27" s="1">
+        <v>150</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25000</v>
       </c>
@@ -2688,21 +4353,30 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
+      <c r="E28" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="1">
+        <f>MAX(A28*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G28" s="1">
+      <c r="J28" s="1">
+        <f>A28*0.0025</f>
+        <v>62.5</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="4"/>
-        <v>62.5</v>
-      </c>
-      <c r="H28" s="1">
+        <v>152.5</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="5"/>
-        <v>152.5</v>
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26000</v>
       </c>
@@ -2718,21 +4392,30 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="E29" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="1">
+        <f>MAX(A29*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G29" s="1">
+      <c r="J29" s="1">
+        <f>A29*0.0025</f>
+        <v>65</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="H29" s="1">
+        <v>155</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>5.9615384615384617E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27000</v>
       </c>
@@ -2748,21 +4431,30 @@
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="E30" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="1">
+        <f>MAX(A30*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G30" s="1">
+      <c r="J30" s="1">
+        <f>A30*0.0025</f>
+        <v>67.5</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="4"/>
-        <v>67.5</v>
-      </c>
-      <c r="H30" s="1">
+        <v>157.5</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="5"/>
-        <v>157.5</v>
+        <v>5.8333333333333336E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28000</v>
       </c>
@@ -2778,21 +4470,30 @@
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
+      <c r="E31" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="I31" s="1">
+        <f>MAX(A31*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G31" s="1">
+      <c r="J31" s="1">
+        <f>A31*0.0025</f>
+        <v>70</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="H31" s="1">
+        <v>160</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29000</v>
       </c>
@@ -2808,21 +4509,30 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
+      <c r="E32" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="I32" s="1">
+        <f>MAX(A32*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G32" s="1">
+      <c r="J32" s="1">
+        <f>A32*0.0025</f>
+        <v>72.5</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="4"/>
-        <v>72.5</v>
-      </c>
-      <c r="H32" s="1">
+        <v>162.5</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="5"/>
-        <v>162.5</v>
+        <v>5.6034482758620689E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30000</v>
       </c>
@@ -2838,21 +4548,30 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
+      <c r="E33" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="1">
+        <f>MAX(A33*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G33" s="1">
+      <c r="J33" s="1">
+        <f>A33*0.0025</f>
+        <v>75</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="H33" s="1">
+        <v>165</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="5"/>
-        <v>165</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31000</v>
       </c>
@@ -2868,21 +4587,30 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1">
+      <c r="E34" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="1">
+        <f>MAX(A34*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G34" s="1">
+      <c r="J34" s="1">
+        <f>A34*0.0025</f>
+        <v>77.5</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>77.5</v>
-      </c>
-      <c r="H34" s="1">
+        <v>167.5</v>
+      </c>
+      <c r="L34" s="3">
         <f t="shared" si="5"/>
-        <v>167.5</v>
+        <v>5.4032258064516132E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32000</v>
       </c>
@@ -2898,21 +4626,30 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
+      <c r="E35" s="3">
         <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="1">
+        <f>MAX(A35*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G35" s="1">
+      <c r="J35" s="1">
+        <f>A35*0.0025</f>
+        <v>80</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="H35" s="1">
+        <v>170</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="5"/>
-        <v>170</v>
+        <v>5.3125000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33000</v>
       </c>
@@ -2928,18 +4665,27 @@
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1">
+      <c r="E36" s="3">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="1">
         <f>MAX(A36*0.0015,90)</f>
         <v>90</v>
       </c>
-      <c r="G36" s="1">
+      <c r="J36" s="1">
+        <f>A36*0.0025</f>
+        <v>82.5</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>82.5</v>
-      </c>
-      <c r="H36" s="1">
+        <v>172.5</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="5"/>
-        <v>172.5</v>
+        <v>5.2272727272727271E-3</v>
       </c>
     </row>
   </sheetData>
